--- a/accuracy data.xlsx
+++ b/accuracy data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robph\Desktop\Dissertation stuff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{98521604-CBB5-45BE-9F99-3CA9F6C7A820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75664510-8771-4B79-ADFC-FB3CA4B6725B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C3663C14-4818-4E79-AA70-09A8D9CDE637}"/>
   </bookViews>
@@ -17,6 +17,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Date</t>
   </si>
@@ -76,6 +77,9 @@
   </si>
   <si>
     <t>binned the posts with only titles. Dataset of ~15000</t>
+  </si>
+  <si>
+    <t>added in replies to replies to the dataset. 29000 rows.</t>
   </si>
 </sst>
 </file>
@@ -168,74 +172,9 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>Accuracy</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="7.0223413234910506E-2"/>
-          <c:y val="0.12336574100663032"/>
-          <c:w val="0.84904374695403995"/>
-          <c:h val="0.79947394914230607"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -264,12 +203,26 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$11</c:f>
+              <c:f>Sheet1!$A$2:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>44873</c:v>
                 </c:pt>
@@ -299,16 +252,19 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>44880</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44885</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$11</c:f>
+              <c:f>Sheet1!$B$2:$B$12</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0.62</c:v>
                 </c:pt>
@@ -337,6 +293,9 @@
                   <c:v>0.79</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0.83</c:v>
                 </c:pt>
               </c:numCache>
@@ -381,8 +340,52 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -444,8 +447,52 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.0%" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -493,6 +540,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -1431,7 +1509,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB3C1FE9-D12F-4912-B94D-CF6E25617CC9}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="83" workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
@@ -1563,6 +1641,17 @@
       </c>
       <c r="C11" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>44885</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.83</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
